--- a/NEW HR/DONE/JIMENO, CHARITY.xlsx
+++ b/NEW HR/DONE/JIMENO, CHARITY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACA8CB6-3205-49DC-B482-733741369749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -216,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -589,8 +590,20 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -604,29 +617,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,7 +1318,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1361,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1425,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,7 +1485,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1551,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1614,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1712,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,7 +1771,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1836,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1879,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1954,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2140,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2206,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2264,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2330,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2386,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2461,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2504,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2570,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2626,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,7 +2724,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +2787,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2836,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2852,25 +2853,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2882,25 +2883,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2912,13 +2913,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2927,14 +2928,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3238,7 +3239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3248,7 +3249,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3256,93 +3257,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A31" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3672" topLeftCell="A68" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3350,7 +3351,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3363,24 +3364,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3424,7 +3425,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>49.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3434,12 +3435,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3461,7 +3462,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3507,7 +3508,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3527,7 +3528,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3547,7 +3548,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3567,7 +3568,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3587,7 +3588,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3607,7 +3608,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3627,7 +3628,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3647,7 +3648,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3667,7 +3668,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3687,7 +3688,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3711,7 +3712,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3729,7 +3730,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3749,7 +3750,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3769,7 +3770,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3789,7 +3790,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3809,7 +3810,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3829,7 +3830,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3849,7 +3850,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3869,7 +3870,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3889,7 +3890,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3909,7 +3910,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3955,18 +3956,18 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
       <c r="D35" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
@@ -3977,11 +3978,9 @@
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -3999,7 +3998,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4019,7 +4018,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4039,7 +4038,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4059,7 +4058,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4079,7 +4078,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4099,7 +4098,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4119,7 +4118,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4139,7 +4138,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4159,7 +4158,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4179,7 +4178,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4199,7 +4198,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4219,7 +4218,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4243,7 +4242,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4261,7 +4260,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4281,7 +4280,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4301,7 +4300,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4321,7 +4320,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4341,7 +4340,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4361,7 +4360,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4381,7 +4380,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4401,7 +4400,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4421,7 +4420,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4441,7 +4440,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4461,7 +4460,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4481,7 +4480,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4505,7 +4504,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4523,7 +4522,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4543,7 +4542,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4563,7 +4562,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4583,7 +4582,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4603,7 +4602,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4623,7 +4622,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4643,7 +4642,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4663,7 +4662,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4683,7 +4682,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4703,7 +4702,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4723,7 +4722,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4743,7 +4742,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4767,7 +4766,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4785,9 +4784,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4805,88 +4804,110 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40">
+        <v>44985</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>45016</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>45046</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <v>45077</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4901,8 +4922,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4917,8 +4940,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4933,8 +4958,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4949,8 +4976,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4965,8 +4994,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4981,8 +5012,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4997,8 +5030,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5013,8 +5048,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45382</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5029,8 +5066,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45412</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5045,8 +5084,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45443</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5061,8 +5102,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>45473</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5077,8 +5120,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45504</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5093,8 +5138,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45535</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5109,8 +5156,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45565</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5125,8 +5174,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45596</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5141,7 +5192,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5157,7 +5208,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5173,7 +5224,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5189,7 +5240,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5205,7 +5256,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5221,7 +5272,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5237,7 +5288,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5253,7 +5304,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5269,7 +5320,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5285,7 +5336,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5301,7 +5352,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5317,7 +5368,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5333,7 +5384,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5349,7 +5400,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5365,7 +5416,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5381,7 +5432,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5397,7 +5448,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5413,7 +5464,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5429,7 +5480,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5445,7 +5496,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5461,7 +5512,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5477,7 +5528,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5493,7 +5544,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5509,7 +5560,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5525,7 +5576,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5541,7 +5592,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5557,7 +5608,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5573,7 +5624,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5589,7 +5640,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5605,7 +5656,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5621,7 +5672,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5637,7 +5688,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5653,7 +5704,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5669,7 +5720,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5685,7 +5736,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5701,7 +5752,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5717,7 +5768,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5735,23 +5786,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5774,104 +5825,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A7" activePane="bottomLeft"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3672" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>JIMENO, CHARITY</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5879,7 +5930,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5892,24 +5943,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5944,7 +5995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5953,7 +6004,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.25</v>
+        <v>63.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5968,7 +6019,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -5990,7 +6041,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43497</v>
       </c>
@@ -6010,15 +6061,19 @@
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="61">
+      <c r="K11" s="49">
         <v>43510</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="39">
+        <v>4</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
       <c r="G12" s="13" t="str">
@@ -6028,9 +6083,11 @@
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -6046,7 +6103,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -6062,7 +6119,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -6078,7 +6135,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -6094,7 +6151,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -6110,7 +6167,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -6126,7 +6183,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -6142,7 +6199,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -6158,7 +6215,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6174,7 +6231,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6190,7 +6247,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6206,7 +6263,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6222,7 +6279,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6238,7 +6295,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6254,7 +6311,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6270,7 +6327,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6286,7 +6343,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6302,7 +6359,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6318,7 +6375,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6334,7 +6391,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6350,7 +6407,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6366,7 +6423,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6382,7 +6439,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6398,7 +6455,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6414,7 +6471,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6430,7 +6487,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6446,7 +6503,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6462,7 +6519,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6478,7 +6535,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6494,7 +6551,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6510,7 +6567,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6526,7 +6583,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6542,7 +6599,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6558,7 +6615,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6574,7 +6631,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6590,7 +6647,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6606,7 +6663,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6622,7 +6679,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6638,7 +6695,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6654,7 +6711,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6670,7 +6727,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6686,7 +6743,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6702,7 +6759,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6718,7 +6775,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6734,7 +6791,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6750,7 +6807,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6766,7 +6823,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6782,7 +6839,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6798,7 +6855,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6814,7 +6871,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6830,7 +6887,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6846,7 +6903,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6862,7 +6919,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6878,7 +6935,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6894,7 +6951,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6910,7 +6967,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6926,7 +6983,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6942,7 +6999,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6958,7 +7015,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6974,7 +7031,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6990,7 +7047,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7006,7 +7063,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7022,7 +7079,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7038,7 +7095,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7054,7 +7111,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7070,7 +7127,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7086,7 +7143,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7102,7 +7159,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7118,7 +7175,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7134,7 +7191,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7150,7 +7207,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7166,7 +7223,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7182,7 +7239,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7198,7 +7255,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7214,7 +7271,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7230,7 +7287,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7246,7 +7303,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7262,7 +7319,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7278,7 +7335,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7294,7 +7351,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7310,7 +7367,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7326,7 +7383,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7342,7 +7399,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7358,7 +7415,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7374,7 +7431,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7390,7 +7447,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7406,7 +7463,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7422,7 +7479,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7438,7 +7495,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7454,7 +7511,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7470,7 +7527,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7486,7 +7543,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7502,7 +7559,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7518,7 +7575,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7534,7 +7591,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7550,7 +7607,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7566,7 +7623,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7582,7 +7639,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7598,7 +7655,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7614,7 +7671,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7630,7 +7687,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7646,7 +7703,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7662,7 +7719,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7678,7 +7735,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7694,7 +7751,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7710,7 +7767,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7726,7 +7783,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7742,7 +7799,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7758,7 +7815,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7774,7 +7831,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7790,7 +7847,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7806,7 +7863,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7822,7 +7879,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7838,7 +7895,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7854,7 +7911,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7870,7 +7927,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7886,7 +7943,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7902,7 +7959,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -7933,10 +7990,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7959,7 +8016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -7967,34 +8024,34 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8023,7 +8080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>69.25</v>
       </c>
@@ -8047,17 +8104,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8071,14 +8128,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8105,7 +8162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8131,7 +8188,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8157,7 +8214,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8183,7 +8240,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8209,7 +8266,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8235,7 +8292,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8261,7 +8318,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8287,7 +8344,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8307,7 +8364,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8327,7 +8384,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8347,7 +8404,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8368,7 +8425,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8389,7 +8446,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8410,7 +8467,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8431,7 +8488,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8452,7 +8509,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8473,7 +8530,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8494,7 +8551,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8515,7 +8572,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8536,7 +8593,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8557,7 +8614,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8578,7 +8635,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8599,7 +8656,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8620,7 +8677,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8641,7 +8698,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8662,7 +8719,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8683,7 +8740,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8704,7 +8761,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8725,7 +8782,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8746,7 +8803,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8767,7 +8824,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8776,7 +8833,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8785,7 +8842,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8794,7 +8851,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8803,7 +8860,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8812,7 +8869,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8821,7 +8878,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8830,7 +8887,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8839,7 +8896,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8848,7 +8905,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8857,7 +8914,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8866,7 +8923,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8875,7 +8932,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8884,7 +8941,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8893,7 +8950,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8902,7 +8959,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8911,7 +8968,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8920,7 +8977,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8929,7 +8986,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8938,7 +8995,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8947,7 +9004,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8956,7 +9013,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8965,7 +9022,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8974,7 +9031,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8983,7 +9040,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8992,7 +9049,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9001,7 +9058,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9010,7 +9067,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9019,7 +9076,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9028,7 +9085,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/JIMENO, CHARITY.xlsx
+++ b/NEW HR/DONE/JIMENO, CHARITY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACA8CB6-3205-49DC-B482-733741369749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -213,11 +212,17 @@
   <si>
     <t>10/19-27/2019</t>
   </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>7/31-8/1-2/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -596,15 +601,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -617,11 +613,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1318,7 +1323,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1366,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +1430,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1490,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1556,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1619,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1717,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1776,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1841,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1884,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1959,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2145,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2211,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2269,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2335,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2391,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2466,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2509,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2575,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2631,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2729,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2792,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2841,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2853,25 +2858,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2883,25 +2888,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2913,13 +2918,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2928,14 +2933,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3239,7 +3244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3249,7 +3254,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3257,34 +3262,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3672" topLeftCell="A68" activePane="bottomLeft"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3675" topLeftCell="A68" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3296,16 +3301,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3314,16 +3319,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3334,16 +3339,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3351,7 +3356,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3364,24 +3369,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3425,7 +3430,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3435,12 +3440,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3462,7 +3467,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3488,7 +3493,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3508,7 +3513,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3528,7 +3533,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3548,7 +3553,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3568,7 +3573,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3588,7 +3593,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3608,7 +3613,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3628,7 +3633,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3648,7 +3653,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3668,7 +3673,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3688,7 +3693,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3712,7 +3717,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3730,7 +3735,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3750,7 +3755,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3770,7 +3775,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3790,7 +3795,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3810,7 +3815,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3830,7 +3835,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3850,7 +3855,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3870,7 +3875,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3890,7 +3895,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3910,7 +3915,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3936,7 +3941,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3956,7 +3961,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3980,7 +3985,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -3998,7 +4003,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4018,7 +4023,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4038,7 +4043,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4058,7 +4063,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4078,7 +4083,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4098,7 +4103,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4118,7 +4123,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4138,7 +4143,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4158,7 +4163,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4178,7 +4183,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4198,7 +4203,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4218,7 +4223,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4242,7 +4247,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4260,7 +4265,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4280,7 +4285,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4300,7 +4305,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4320,7 +4325,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4340,7 +4345,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4360,7 +4365,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4380,7 +4385,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4400,7 +4405,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4420,7 +4425,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4440,7 +4445,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4460,7 +4465,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4480,7 +4485,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4504,7 +4509,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4522,7 +4527,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4542,7 +4547,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4562,7 +4567,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4582,7 +4587,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4602,7 +4607,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4622,7 +4627,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4642,7 +4647,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4662,7 +4667,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4682,7 +4687,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4702,7 +4707,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4722,7 +4727,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4742,7 +4747,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4766,7 +4771,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4784,7 +4789,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4804,7 +4809,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4824,7 +4829,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4844,7 +4849,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4864,7 +4869,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4884,7 +4889,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -4904,25 +4909,27 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
@@ -4940,7 +4947,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
@@ -4958,7 +4965,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45230</v>
       </c>
@@ -4976,7 +4983,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45260</v>
       </c>
@@ -4994,7 +5001,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45291</v>
       </c>
@@ -5012,7 +5019,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45322</v>
       </c>
@@ -5030,7 +5037,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45351</v>
       </c>
@@ -5048,7 +5055,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45382</v>
       </c>
@@ -5066,7 +5073,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45412</v>
       </c>
@@ -5084,7 +5091,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45443</v>
       </c>
@@ -5102,7 +5109,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45473</v>
       </c>
@@ -5120,7 +5127,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45504</v>
       </c>
@@ -5138,7 +5145,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45535</v>
       </c>
@@ -5156,7 +5163,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45565</v>
       </c>
@@ -5174,7 +5181,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45596</v>
       </c>
@@ -5192,7 +5199,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5208,7 +5215,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5224,7 +5231,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5240,7 +5247,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5256,7 +5263,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5272,7 +5279,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5288,7 +5295,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5304,7 +5311,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5320,7 +5327,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5336,7 +5343,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5352,7 +5359,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5368,7 +5375,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5384,7 +5391,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5400,7 +5407,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5416,7 +5423,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5432,7 +5439,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5448,7 +5455,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5464,7 +5471,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5480,7 +5487,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5496,7 +5503,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5512,7 +5519,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5528,7 +5535,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5544,7 +5551,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5560,7 +5567,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5576,7 +5583,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5592,7 +5599,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5608,7 +5615,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5624,7 +5631,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5640,7 +5647,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5656,7 +5663,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5672,7 +5679,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5688,7 +5695,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5704,7 +5711,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5720,7 +5727,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5736,7 +5743,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5752,7 +5759,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5768,7 +5775,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5786,23 +5793,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5825,34 +5832,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3672" topLeftCell="A4" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3675" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5865,16 +5872,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5886,19 +5893,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5910,19 +5917,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5930,7 +5937,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5943,24 +5950,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5995,7 +6002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6014,12 +6021,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>96.25</v>
+        <v>93.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6041,7 +6048,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43497</v>
       </c>
@@ -6065,7 +6072,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>55</v>
@@ -6087,9 +6094,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="20"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
@@ -6098,12 +6109,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="39">
+        <v>3</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -6119,7 +6134,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -6135,7 +6150,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -6151,7 +6166,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -6167,7 +6182,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -6183,7 +6198,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -6199,7 +6214,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -6215,7 +6230,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6231,7 +6246,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6247,7 +6262,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6263,7 +6278,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6279,7 +6294,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6295,7 +6310,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6311,7 +6326,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6327,7 +6342,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6343,7 +6358,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6359,7 +6374,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6375,7 +6390,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6391,7 +6406,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6407,7 +6422,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6423,7 +6438,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6439,7 +6454,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6455,7 +6470,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6471,7 +6486,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6487,7 +6502,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6503,7 +6518,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6519,7 +6534,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6535,7 +6550,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6551,7 +6566,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6567,7 +6582,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6583,7 +6598,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6599,7 +6614,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6615,7 +6630,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6631,7 +6646,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6647,7 +6662,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6663,7 +6678,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6679,7 +6694,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6695,7 +6710,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6711,7 +6726,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6727,7 +6742,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6743,7 +6758,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6759,7 +6774,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6775,7 +6790,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6791,7 +6806,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6807,7 +6822,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6823,7 +6838,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6839,7 +6854,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6855,7 +6870,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6871,7 +6886,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6887,7 +6902,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6903,7 +6918,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6919,7 +6934,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6935,7 +6950,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6951,7 +6966,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6967,7 +6982,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6983,7 +6998,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6999,7 +7014,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7015,7 +7030,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7031,7 +7046,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7047,7 +7062,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7063,7 +7078,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7079,7 +7094,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7095,7 +7110,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7111,7 +7126,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7127,7 +7142,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7143,7 +7158,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7159,7 +7174,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7175,7 +7190,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7191,7 +7206,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7207,7 +7222,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7223,7 +7238,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7239,7 +7254,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7255,7 +7270,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7271,7 +7286,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7287,7 +7302,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7303,7 +7318,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7319,7 +7334,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7335,7 +7350,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7351,7 +7366,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7367,7 +7382,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7383,7 +7398,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7399,7 +7414,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7415,7 +7430,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7431,7 +7446,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7447,7 +7462,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7463,7 +7478,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7479,7 +7494,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7495,7 +7510,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7511,7 +7526,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7527,7 +7542,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7543,7 +7558,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7559,7 +7574,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7575,7 +7590,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7591,7 +7606,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7607,7 +7622,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7623,7 +7638,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7639,7 +7654,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7655,7 +7670,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7671,7 +7686,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7687,7 +7702,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7703,7 +7718,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7719,7 +7734,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7735,7 +7750,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7751,7 +7766,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7767,7 +7782,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7783,7 +7798,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7799,7 +7814,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7815,7 +7830,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7831,7 +7846,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7847,7 +7862,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7863,7 +7878,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7879,7 +7894,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7895,7 +7910,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7911,7 +7926,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7927,7 +7942,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7943,7 +7958,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7959,7 +7974,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -7990,10 +8005,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8016,7 +8031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8024,21 +8039,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8051,7 +8066,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8080,7 +8095,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>69.25</v>
       </c>
@@ -8104,17 +8119,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8135,7 +8150,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8162,7 +8177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8188,7 +8203,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8214,7 +8229,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8240,7 +8255,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8266,7 +8281,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8292,7 +8307,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8318,7 +8333,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8344,7 +8359,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8364,7 +8379,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8384,7 +8399,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8404,7 +8419,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8425,7 +8440,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8446,7 +8461,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8467,7 +8482,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8488,7 +8503,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8509,7 +8524,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8530,7 +8545,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8551,7 +8566,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8572,7 +8587,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8593,7 +8608,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8614,7 +8629,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8635,7 +8650,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8656,7 +8671,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8677,7 +8692,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8698,7 +8713,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8719,7 +8734,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8740,7 +8755,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8761,7 +8776,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8782,7 +8797,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8803,7 +8818,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8824,7 +8839,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8833,7 +8848,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8842,7 +8857,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8851,7 +8866,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8860,7 +8875,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8869,7 +8884,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8878,7 +8893,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8887,7 +8902,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8896,7 +8911,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8905,7 +8920,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8914,7 +8929,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8923,7 +8938,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8932,7 +8947,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8941,7 +8956,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8950,7 +8965,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8959,7 +8974,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8968,7 +8983,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8977,7 +8992,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8986,7 +9001,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8995,7 +9010,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9004,7 +9019,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9013,7 +9028,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9022,7 +9037,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9031,7 +9046,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9040,7 +9055,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9049,7 +9064,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9058,7 +9073,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9067,7 +9082,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9076,7 +9091,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9085,7 +9100,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/JIMENO, CHARITY.xlsx
+++ b/NEW HR/DONE/JIMENO, CHARITY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -217,6 +217,37 @@
   </si>
   <si>
     <t>7/31-8/1-2/2023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <t>8/29-31/2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>9/11-15/2023</t>
+  </si>
+  <si>
+    <t>VL((3-0-0)</t>
+  </si>
+  <si>
+    <t>9/22-24/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -601,6 +632,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -613,20 +653,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1323,7 +1354,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,7 +1397,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,7 +1461,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1521,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1587,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1650,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1748,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,7 +1807,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1872,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1884,7 +1915,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1990,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2176,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2242,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2300,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2366,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2422,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2497,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2540,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2606,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2662,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2760,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2823,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3269,9 +3300,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3675" topLeftCell="A68" activePane="bottomLeft"/>
+      <pane ySplit="3675" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,14 +3332,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3319,14 +3350,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3339,14 +3370,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3372,18 +3403,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3430,7 +3461,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3440,7 +3471,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4934,13 +4965,15 @@
         <v>45169</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4952,13 +4985,15 @@
         <v>45199</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5793,17 +5828,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5841,7 +5876,7 @@
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="3675" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5872,14 +5907,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5893,17 +5928,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5917,17 +5952,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5953,18 +5988,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6011,7 +6046,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>63.25</v>
+        <v>54.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6021,7 +6056,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>93.25</v>
+        <v>90.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6119,7 +6154,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
@@ -6135,8 +6172,12 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="40">
+        <v>45167</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39"/>
       <c r="E15" s="9"/>
@@ -6145,16 +6186,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H15" s="39"/>
+      <c r="H15" s="39">
+        <v>3</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="41">
+        <v>45170</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="43">
+        <v>5</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
       <c r="G16" s="42" t="str">
@@ -6164,13 +6215,19 @@
       <c r="H16" s="43"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="K16" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="39"/>
+      <c r="D17" s="39">
+        <v>3</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
       <c r="G17" s="13" t="str">
@@ -6180,13 +6237,19 @@
       <c r="H17" s="39"/>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="39">
+        <v>1</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
       <c r="G18" s="13" t="str">
@@ -6196,7 +6259,9 @@
       <c r="H18" s="39"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="49">
+        <v>45190</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
